--- a/biology/Zoologie/Emmericiidae/Emmericiidae.xlsx
+++ b/biology/Zoologie/Emmericiidae/Emmericiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Emmericiidae sont une famille de mollusques gastéropodes de l'ordre des Littorinimorpha. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (26 juillet 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (26 juillet 2021) :
 genre Emmericia Brusina, 1870 -- 2 espèces actuelles, de nombreux fossiles
 genre Fontigens Pilsbry, 1933
 genre † Kuiperia Schlickum, 1961
@@ -546,7 +560,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(la + de) Spiridon Brusina, « Monographie des Gattungen Emmericia und Fossarulus », Verhandlungen der kaiserlich-königlichen zoologisch-botanischen Gesellschaft in Wien, Vienne, Inconnu, vol. 20,‎ 2 novembre 1870, p. 925-938 (ISSN 1025-4749, OCLC 5759771, lire en ligne)</t>
         </is>
